--- a/OnBoard/output/trust/bio/Bio_Trust_5.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_5.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q210"/>
+  <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8264,12 +8264,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F158">
@@ -8279,22 +8279,27 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>85</v>
+        <v>348</v>
       </c>
       <c r="I158">
-        <v>92</v>
+        <v>485</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L158">
         <v>0</v>
       </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>SS7756</t>
         </is>
       </c>
     </row>
@@ -8316,12 +8321,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F159">
@@ -8331,22 +8336,27 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>85</v>
+        <v>286</v>
       </c>
       <c r="I159">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>SS7757</t>
         </is>
       </c>
     </row>
@@ -8368,12 +8378,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F160">
@@ -8383,22 +8393,27 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="I160">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>SS7758</t>
         </is>
       </c>
     </row>
@@ -8420,12 +8435,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F161">
@@ -8435,22 +8450,27 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="I161">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L161">
         <v>0</v>
       </c>
-      <c r="P161" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>SS7759</t>
         </is>
       </c>
     </row>
@@ -8472,12 +8492,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F162">
@@ -8487,22 +8507,27 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>85</v>
+        <v>324</v>
       </c>
       <c r="I162">
-        <v>92</v>
+        <v>367</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L162">
         <v>0</v>
       </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>SS7760</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8554,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F163">
@@ -8539,22 +8564,27 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="I163">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L163">
         <v>0</v>
       </c>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>SS7761</t>
         </is>
       </c>
     </row>
@@ -8581,7 +8611,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F164">
@@ -8591,22 +8621,27 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>63</v>
+        <v>270</v>
       </c>
       <c r="I164">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L164">
         <v>0</v>
       </c>
-      <c r="P164" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>SS7762</t>
         </is>
       </c>
     </row>
@@ -8633,7 +8668,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F165">
@@ -8643,10 +8678,10 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I165">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -8654,2381 +8689,6 @@
         </is>
       </c>
       <c r="L165">
-        <v>0</v>
-      </c>
-      <c r="P165" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-      <c r="H166">
-        <v>87</v>
-      </c>
-      <c r="I166">
-        <v>98</v>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L166">
-        <v>0</v>
-      </c>
-      <c r="P166" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F167">
-        <v>1</v>
-      </c>
-      <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="H167">
-        <v>73</v>
-      </c>
-      <c r="I167">
-        <v>60</v>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L167">
-        <v>0</v>
-      </c>
-      <c r="P167" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F168">
-        <v>1</v>
-      </c>
-      <c r="G168">
-        <v>1</v>
-      </c>
-      <c r="H168">
-        <v>62</v>
-      </c>
-      <c r="I168">
-        <v>38</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-      <c r="P168" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-      <c r="H169">
-        <v>74</v>
-      </c>
-      <c r="I169">
-        <v>62</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L169">
-        <v>0</v>
-      </c>
-      <c r="P169" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F170">
-        <v>1</v>
-      </c>
-      <c r="G170">
-        <v>1</v>
-      </c>
-      <c r="H170">
-        <v>65</v>
-      </c>
-      <c r="I170">
-        <v>44</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L170">
-        <v>0</v>
-      </c>
-      <c r="P170" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F171">
-        <v>1</v>
-      </c>
-      <c r="G171">
-        <v>1</v>
-      </c>
-      <c r="H171">
-        <v>60</v>
-      </c>
-      <c r="I171">
-        <v>35</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L171">
-        <v>0</v>
-      </c>
-      <c r="P171" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F172">
-        <v>1</v>
-      </c>
-      <c r="G172">
-        <v>1</v>
-      </c>
-      <c r="H172">
-        <v>60</v>
-      </c>
-      <c r="I172">
-        <v>35</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L172">
-        <v>0</v>
-      </c>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="H173">
-        <v>74</v>
-      </c>
-      <c r="I173">
-        <v>62</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174">
-        <v>75</v>
-      </c>
-      <c r="I174">
-        <v>65</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F175">
-        <v>1</v>
-      </c>
-      <c r="G175">
-        <v>1</v>
-      </c>
-      <c r="H175">
-        <v>67</v>
-      </c>
-      <c r="I175">
-        <v>47</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L175">
-        <v>0</v>
-      </c>
-      <c r="P175" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F176">
-        <v>1</v>
-      </c>
-      <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="H176">
-        <v>90</v>
-      </c>
-      <c r="I176">
-        <v>108</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-      <c r="P176" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F177">
-        <v>1</v>
-      </c>
-      <c r="G177">
-        <v>1</v>
-      </c>
-      <c r="H177">
-        <v>65</v>
-      </c>
-      <c r="I177">
-        <v>44</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L177">
-        <v>0</v>
-      </c>
-      <c r="P177" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F178">
-        <v>1</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
-      </c>
-      <c r="H178">
-        <v>74</v>
-      </c>
-      <c r="I178">
-        <v>62</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L178">
-        <v>0</v>
-      </c>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F179">
-        <v>1</v>
-      </c>
-      <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="H179">
-        <v>65</v>
-      </c>
-      <c r="I179">
-        <v>44</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L179">
-        <v>0</v>
-      </c>
-      <c r="P179" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F180">
-        <v>1</v>
-      </c>
-      <c r="G180">
-        <v>1</v>
-      </c>
-      <c r="H180">
-        <v>66</v>
-      </c>
-      <c r="I180">
-        <v>45</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F181">
-        <v>1</v>
-      </c>
-      <c r="G181">
-        <v>1</v>
-      </c>
-      <c r="H181">
-        <v>88</v>
-      </c>
-      <c r="I181">
-        <v>101</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L181">
-        <v>0</v>
-      </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-      <c r="H182">
-        <v>55</v>
-      </c>
-      <c r="I182">
-        <v>27</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L182">
-        <v>0</v>
-      </c>
-      <c r="P182" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F183">
-        <v>1</v>
-      </c>
-      <c r="G183">
-        <v>1</v>
-      </c>
-      <c r="H183">
-        <v>70</v>
-      </c>
-      <c r="I183">
-        <v>53</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L183">
-        <v>0</v>
-      </c>
-      <c r="P183" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-      <c r="G184">
-        <v>1</v>
-      </c>
-      <c r="H184">
-        <v>50</v>
-      </c>
-      <c r="I184">
-        <v>21</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L184">
-        <v>0</v>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F185">
-        <v>1</v>
-      </c>
-      <c r="G185">
-        <v>1</v>
-      </c>
-      <c r="H185">
-        <v>66</v>
-      </c>
-      <c r="I185">
-        <v>45</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L185">
-        <v>0</v>
-      </c>
-      <c r="P185" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F186">
-        <v>1</v>
-      </c>
-      <c r="G186">
-        <v>1</v>
-      </c>
-      <c r="H186">
-        <v>80</v>
-      </c>
-      <c r="I186">
-        <v>78</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L186">
-        <v>0</v>
-      </c>
-      <c r="P186" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F187">
-        <v>1</v>
-      </c>
-      <c r="G187">
-        <v>1</v>
-      </c>
-      <c r="H187">
-        <v>75</v>
-      </c>
-      <c r="I187">
-        <v>65</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L187">
-        <v>0</v>
-      </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-      <c r="G188">
-        <v>1</v>
-      </c>
-      <c r="H188">
-        <v>67</v>
-      </c>
-      <c r="I188">
-        <v>47</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L188">
-        <v>0</v>
-      </c>
-      <c r="P188" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F189">
-        <v>1</v>
-      </c>
-      <c r="G189">
-        <v>1</v>
-      </c>
-      <c r="H189">
-        <v>67</v>
-      </c>
-      <c r="I189">
-        <v>47</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L189">
-        <v>0</v>
-      </c>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F190">
-        <v>1</v>
-      </c>
-      <c r="G190">
-        <v>1</v>
-      </c>
-      <c r="H190">
-        <v>64</v>
-      </c>
-      <c r="I190">
-        <v>42</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L190">
-        <v>0</v>
-      </c>
-      <c r="P190" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F191">
-        <v>1</v>
-      </c>
-      <c r="G191">
-        <v>1</v>
-      </c>
-      <c r="H191">
-        <v>75</v>
-      </c>
-      <c r="I191">
-        <v>65</v>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L191">
-        <v>0</v>
-      </c>
-      <c r="P191" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F192">
-        <v>1</v>
-      </c>
-      <c r="G192">
-        <v>1</v>
-      </c>
-      <c r="H192">
-        <v>60</v>
-      </c>
-      <c r="I192">
-        <v>35</v>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L192">
-        <v>0</v>
-      </c>
-      <c r="P192" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F193">
-        <v>1</v>
-      </c>
-      <c r="G193">
-        <v>1</v>
-      </c>
-      <c r="H193">
-        <v>63</v>
-      </c>
-      <c r="I193">
-        <v>40</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L193">
-        <v>0</v>
-      </c>
-      <c r="P193" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F194">
-        <v>1</v>
-      </c>
-      <c r="G194">
-        <v>1</v>
-      </c>
-      <c r="H194">
-        <v>67</v>
-      </c>
-      <c r="I194">
-        <v>47</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L194">
-        <v>0</v>
-      </c>
-      <c r="P194" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F195">
-        <v>1</v>
-      </c>
-      <c r="G195">
-        <v>1</v>
-      </c>
-      <c r="H195">
-        <v>80</v>
-      </c>
-      <c r="I195">
-        <v>78</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L195">
-        <v>0</v>
-      </c>
-      <c r="P195" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F196">
-        <v>1</v>
-      </c>
-      <c r="G196">
-        <v>1</v>
-      </c>
-      <c r="H196">
-        <v>60</v>
-      </c>
-      <c r="I196">
-        <v>35</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L196">
-        <v>0</v>
-      </c>
-      <c r="P196" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F197">
-        <v>1</v>
-      </c>
-      <c r="G197">
-        <v>1</v>
-      </c>
-      <c r="H197">
-        <v>69</v>
-      </c>
-      <c r="I197">
-        <v>51</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L197">
-        <v>0</v>
-      </c>
-      <c r="P197" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F198">
-        <v>1</v>
-      </c>
-      <c r="G198">
-        <v>1</v>
-      </c>
-      <c r="H198">
-        <v>66</v>
-      </c>
-      <c r="I198">
-        <v>45</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L198">
-        <v>0</v>
-      </c>
-      <c r="P198" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F199">
-        <v>1</v>
-      </c>
-      <c r="G199">
-        <v>1</v>
-      </c>
-      <c r="H199">
-        <v>68</v>
-      </c>
-      <c r="I199">
-        <v>49</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L199">
-        <v>0</v>
-      </c>
-      <c r="P199" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F200">
-        <v>1</v>
-      </c>
-      <c r="G200">
-        <v>1</v>
-      </c>
-      <c r="H200">
-        <v>65</v>
-      </c>
-      <c r="I200">
-        <v>44</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L200">
-        <v>0</v>
-      </c>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F201">
-        <v>1</v>
-      </c>
-      <c r="G201">
-        <v>1</v>
-      </c>
-      <c r="H201">
-        <v>66</v>
-      </c>
-      <c r="I201">
-        <v>45</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L201">
-        <v>0</v>
-      </c>
-      <c r="P201" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F202">
-        <v>1</v>
-      </c>
-      <c r="G202">
-        <v>1</v>
-      </c>
-      <c r="H202">
-        <v>65</v>
-      </c>
-      <c r="I202">
-        <v>44</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L202">
-        <v>0</v>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F203">
-        <v>1</v>
-      </c>
-      <c r="G203">
-        <v>1</v>
-      </c>
-      <c r="H203">
-        <v>348</v>
-      </c>
-      <c r="I203">
-        <v>485</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L203">
-        <v>0</v>
-      </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>SS7756</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F204">
-        <v>1</v>
-      </c>
-      <c r="G204">
-        <v>1</v>
-      </c>
-      <c r="H204">
-        <v>286</v>
-      </c>
-      <c r="I204">
-        <v>223</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L204">
-        <v>0</v>
-      </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>SS7757</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F205">
-        <v>1</v>
-      </c>
-      <c r="G205">
-        <v>1</v>
-      </c>
-      <c r="H205">
-        <v>272</v>
-      </c>
-      <c r="I205">
-        <v>170</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L205">
-        <v>0</v>
-      </c>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>SS7758</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F206">
-        <v>1</v>
-      </c>
-      <c r="G206">
-        <v>1</v>
-      </c>
-      <c r="H206">
-        <v>215</v>
-      </c>
-      <c r="I206">
-        <v>78</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L206">
-        <v>0</v>
-      </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>SS7759</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F207">
-        <v>1</v>
-      </c>
-      <c r="G207">
-        <v>1</v>
-      </c>
-      <c r="H207">
-        <v>324</v>
-      </c>
-      <c r="I207">
-        <v>367</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L207">
-        <v>0</v>
-      </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>SS7760</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F208">
-        <v>1</v>
-      </c>
-      <c r="G208">
-        <v>1</v>
-      </c>
-      <c r="H208">
-        <v>208</v>
-      </c>
-      <c r="I208">
-        <v>73</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L208">
-        <v>0</v>
-      </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>SS7761</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F209">
-        <v>1</v>
-      </c>
-      <c r="G209">
-        <v>1</v>
-      </c>
-      <c r="H209">
-        <v>270</v>
-      </c>
-      <c r="I209">
-        <v>165</v>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L209">
-        <v>0</v>
-      </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>SS7762</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F210">
-        <v>1</v>
-      </c>
-      <c r="G210">
-        <v>1</v>
-      </c>
-      <c r="H210">
-        <v>20</v>
-      </c>
-      <c r="I210">
-        <v>4</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L210">
         <v>0</v>
       </c>
     </row>
